--- a/Code/Results/Cases/Case_2_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.179020307811413</v>
+        <v>0.4394758967127643</v>
       </c>
       <c r="C2">
-        <v>0.1842936251533018</v>
+        <v>0.05792934897442592</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.3825103837694</v>
+        <v>0.4137736353621335</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.6273394743994487</v>
+        <v>0.7075543427997246</v>
       </c>
       <c r="H2">
-        <v>0.4337945145409208</v>
+        <v>0.7868150775298091</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.266353762180586</v>
+        <v>0.4209050179155724</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7233403857498928</v>
+        <v>1.453394839498927</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019571517649609</v>
+        <v>0.3954467967019184</v>
       </c>
       <c r="C3">
-        <v>0.1607942533374001</v>
+        <v>0.05099699084149734</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.18600249432393</v>
+        <v>0.3609939484190932</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.585669870167365</v>
+        <v>0.7027908819782596</v>
       </c>
       <c r="H3">
-        <v>0.4229878192289647</v>
+        <v>0.7896932428442511</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.094627992646821</v>
+        <v>0.3726306790273952</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7721049619853986</v>
+        <v>1.472137748567512</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9226336912849149</v>
+        <v>0.3685600794853201</v>
       </c>
       <c r="C4">
-        <v>0.1464880837307021</v>
+        <v>0.0467226698596761</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.067750182590416</v>
+        <v>0.3286826421104649</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.5619719034303046</v>
+        <v>0.700426502524607</v>
       </c>
       <c r="H4">
-        <v>0.4174049527672423</v>
+        <v>0.7918900219751634</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9901770216072521</v>
+        <v>0.3430776091788346</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8034701461915752</v>
+        <v>1.484234654344057</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8833362477359969</v>
+        <v>0.3576404618126219</v>
       </c>
       <c r="C5">
-        <v>0.1406825031222354</v>
+        <v>0.04497629318019847</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.020073043503572</v>
+        <v>0.3155376903613956</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.5527505032200111</v>
+        <v>0.6996032161523118</v>
       </c>
       <c r="H5">
-        <v>0.4153771790886367</v>
+        <v>0.7928930327952912</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9478199404095449</v>
+        <v>0.3310563013387764</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8165959736629418</v>
+        <v>1.48931203180177</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8768223204104117</v>
+        <v>0.3558294955680879</v>
       </c>
       <c r="C6">
-        <v>0.1397197783590229</v>
+        <v>0.04468603134755256</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.012184631732524</v>
+        <v>0.3133562653516577</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.5512445306749214</v>
+        <v>0.6994749584436022</v>
       </c>
       <c r="H6">
-        <v>0.4150549210742156</v>
+        <v>0.7930660869438242</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.94079796836931</v>
+        <v>0.3290614834788244</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8187959181754394</v>
+        <v>1.490164045686948</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9221029270058523</v>
+        <v>0.3684126642823742</v>
       </c>
       <c r="C7">
-        <v>0.1464096974678597</v>
+        <v>0.04669913615707344</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.067105237247489</v>
+        <v>0.3285052773981363</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.561845825495098</v>
+        <v>0.7004148325934239</v>
       </c>
       <c r="H7">
-        <v>0.4173766262499896</v>
+        <v>0.7919031127192113</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.989604991098048</v>
+        <v>0.3429153975916961</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.803645789162406</v>
+        <v>1.484302531561749</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.123819011031316</v>
+        <v>0.4242640038382888</v>
       </c>
       <c r="C8">
-        <v>0.1761615068160154</v>
+        <v>0.05554272476283018</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.314196761291257</v>
+        <v>0.3955542002076555</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.6125557436627957</v>
+        <v>0.7057951630525139</v>
       </c>
       <c r="H8">
-        <v>0.4298390517164563</v>
+        <v>0.7877181799069461</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.206911492729859</v>
+        <v>0.4042417066088717</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7398503997970955</v>
+        <v>1.459735070734158</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.52887708622697</v>
+        <v>0.5349683107570797</v>
       </c>
       <c r="C9">
-        <v>0.2358043651864676</v>
+        <v>0.0727477052484744</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.822516384139249</v>
+        <v>0.5278868984118787</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.728893280928304</v>
+        <v>0.7208258525342046</v>
       </c>
       <c r="H9">
-        <v>0.4634863318966751</v>
+        <v>0.7829303850148221</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.642956136089822</v>
+        <v>0.525213243517868</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6267126909110985</v>
+        <v>1.416239278022974</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.835116773951512</v>
+        <v>0.617046180237196</v>
       </c>
       <c r="C10">
-        <v>0.2809301118141292</v>
+        <v>0.08531148287526946</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.217910094620962</v>
+        <v>0.6257652364423052</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.8276277187981123</v>
+        <v>0.7346485376339302</v>
       </c>
       <c r="H10">
-        <v>0.4951423136339628</v>
+        <v>0.7815123812529094</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.972556725978052</v>
+        <v>0.6145558361697567</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5519069517803175</v>
+        <v>1.38714919399969</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.977033404072586</v>
+        <v>0.6545527502293851</v>
       </c>
       <c r="C11">
-        <v>0.3018752575045625</v>
+        <v>0.09101199920894487</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.404500930722875</v>
+        <v>0.6704645055443876</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.8761753182856893</v>
+        <v>0.74155110603715</v>
       </c>
       <c r="H11">
-        <v>0.5113845720207877</v>
+        <v>0.7813266356545654</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.125320283936333</v>
+        <v>0.6553084531769287</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5199402066552707</v>
+        <v>1.374540510164916</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.031216533867621</v>
+        <v>0.668780093169886</v>
       </c>
       <c r="C12">
-        <v>0.309879376332816</v>
+        <v>0.09316861125182641</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.476316351072612</v>
+        <v>0.687418236851002</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.8951529082168435</v>
+        <v>0.744254134889843</v>
       </c>
       <c r="H12">
-        <v>0.5178318512852798</v>
+        <v>0.7813226188700781</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.183651321304751</v>
+        <v>0.6707566689166242</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5081566184103252</v>
+        <v>1.369856014554738</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.0195263890663</v>
+        <v>0.6657148921909197</v>
       </c>
       <c r="C13">
-        <v>0.3081520953491861</v>
+        <v>0.0927042361395678</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.460794794532575</v>
+        <v>0.6837657093580702</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.8910381125581495</v>
+        <v>0.7436680102750159</v>
       </c>
       <c r="H13">
-        <v>0.516429570317726</v>
+        <v>0.7813205299263899</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.171065899193394</v>
+        <v>0.6674289000962403</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5106796970467187</v>
+        <v>1.370860890195054</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.981481800805113</v>
+        <v>0.655722752159221</v>
       </c>
       <c r="C14">
-        <v>0.30253222668604</v>
+        <v>0.0911894655978216</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.410384837518308</v>
+        <v>0.6718587443379391</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.8777242787540303</v>
+        <v>0.7417716940042851</v>
       </c>
       <c r="H14">
-        <v>0.5119088512814329</v>
+        <v>0.7813249744437485</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.130109066660282</v>
+        <v>0.6565790634647612</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.518964166842192</v>
+        <v>1.374153305449806</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.958238146299038</v>
+        <v>0.6496054617903724</v>
       </c>
       <c r="C15">
-        <v>0.2990997600070102</v>
+        <v>0.09026136035443244</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.379664163113844</v>
+        <v>0.6645689742595806</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.8696487472839181</v>
+        <v>0.7406217828284696</v>
       </c>
       <c r="H15">
-        <v>0.5091794287538391</v>
+        <v>0.7813363419509329</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.105087123990955</v>
+        <v>0.6499353269543349</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5240813046049446</v>
+        <v>1.37618175358039</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.825900234626715</v>
+        <v>0.6145984477290654</v>
       </c>
       <c r="C16">
-        <v>0.2795707365617233</v>
+        <v>0.08493864951248042</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.205866920835547</v>
+        <v>0.6228477109398511</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.824534020373477</v>
+        <v>0.7342098735641827</v>
       </c>
       <c r="H16">
-        <v>0.4941205414470176</v>
+        <v>0.7815337859018001</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.962636462338395</v>
+        <v>0.6118947946233106</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5540396254761859</v>
+        <v>1.387985796675032</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.745428442950271</v>
+        <v>0.5931661345967143</v>
       </c>
       <c r="C17">
-        <v>0.2677056620240847</v>
+        <v>0.08166960211713103</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.101097312808974</v>
+        <v>0.5972990837829002</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.7978361361051327</v>
+        <v>0.7304343477027828</v>
       </c>
       <c r="H17">
-        <v>0.4853756163948759</v>
+        <v>0.7817727448399125</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.876023017796541</v>
+        <v>0.588586555196855</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5729632407082761</v>
+        <v>1.395387388531564</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.699384062197282</v>
+        <v>0.5808547280054484</v>
       </c>
       <c r="C18">
-        <v>0.260919606448212</v>
+        <v>0.07978793375741589</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.041456610883984</v>
+        <v>0.5826204338558512</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.7828174188851165</v>
+        <v>0.7283205619081912</v>
       </c>
       <c r="H18">
-        <v>0.4805170092668902</v>
+        <v>0.7819534037079876</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.826466226857121</v>
+        <v>0.5751906326500773</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5840401104942465</v>
+        <v>1.399703352992567</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.683833664469773</v>
+        <v>0.5766890231838033</v>
       </c>
       <c r="C19">
-        <v>0.2586282046915187</v>
+        <v>0.07915059053752316</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.021364414152444</v>
+        <v>0.5776532222990625</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.7777882182339795</v>
+        <v>0.7276147726633582</v>
       </c>
       <c r="H19">
-        <v>0.4789004699561161</v>
+        <v>0.7820219858516282</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.809729793227831</v>
+        <v>0.5706567758297751</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5878228987312397</v>
+        <v>1.401174747296668</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.753969409870763</v>
+        <v>0.5954459951543924</v>
       </c>
       <c r="C20">
-        <v>0.2689646566166886</v>
+        <v>0.08201774198886369</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.112184755111201</v>
+        <v>0.6000170825434026</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.8006427832613383</v>
+        <v>0.7308302713195332</v>
       </c>
       <c r="H20">
-        <v>0.4862885870190468</v>
+        <v>0.7817428325879376</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.885215633626586</v>
+        <v>0.591066683154537</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5709286945514052</v>
+        <v>1.394593392136279</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.992643833616313</v>
+        <v>0.6586570221394084</v>
       </c>
       <c r="C21">
-        <v>0.3041808374281771</v>
+        <v>0.09163444541169952</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.425158389397623</v>
+        <v>0.6753553567391464</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.8816181511957524</v>
+        <v>0.7423262614154993</v>
       </c>
       <c r="H21">
-        <v>0.5132283709712198</v>
+        <v>0.7813218668553645</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.142125322975886</v>
+        <v>0.6597654850641845</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5165218781323375</v>
+        <v>1.37318379425761</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.151247370582837</v>
+        <v>0.7001114776239206</v>
       </c>
       <c r="C22">
-        <v>0.3276272429838798</v>
+        <v>0.09790760746096794</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.636561551941966</v>
+        <v>0.7247521475696317</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.9380401998244707</v>
+        <v>0.7503597189814712</v>
       </c>
       <c r="H22">
-        <v>0.5325820925175435</v>
+        <v>0.7814334404389029</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.312887268033933</v>
+        <v>0.7047579882747073</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4828517221595696</v>
+        <v>1.359716943009204</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.066333803978296</v>
+        <v>0.6779733819630849</v>
       </c>
       <c r="C23">
-        <v>0.315069416121105</v>
+        <v>0.09456056579017513</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.523033679836928</v>
+        <v>0.698372920334009</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.9075805522247009</v>
+        <v>0.7460242494154272</v>
       </c>
       <c r="H23">
-        <v>0.5220812319038259</v>
+        <v>0.7813384174771301</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.221459260843574</v>
+        <v>0.6807359745258452</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5006403649338118</v>
+        <v>1.366856255469749</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.750107358711801</v>
+        <v>0.5944152380762944</v>
       </c>
       <c r="C24">
-        <v>0.2683953560383401</v>
+        <v>0.08186035496960642</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.107170290212792</v>
+        <v>0.598788245615097</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.7993728746976672</v>
+        <v>0.730651097329968</v>
       </c>
       <c r="H24">
-        <v>0.4858753090642551</v>
+        <v>0.7817562211157707</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.881058914994412</v>
+        <v>0.589945403950594</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5718478997619378</v>
+        <v>1.394952168861344</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.418004490238928</v>
+        <v>0.5048910722452433</v>
       </c>
       <c r="C25">
-        <v>0.2194807449154581</v>
+        <v>0.06810728334302496</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.681745532904415</v>
+        <v>0.4919824951388989</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.6953248837889845</v>
+        <v>0.7162750521133034</v>
       </c>
       <c r="H25">
-        <v>0.4532698327959537</v>
+        <v>0.7838580241663635</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.523623785386661</v>
+        <v>0.4924079129950485</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6559393140941481</v>
+        <v>1.427503630224834</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4394758967127643</v>
+        <v>1.179020307811442</v>
       </c>
       <c r="C2">
-        <v>0.05792934897442592</v>
+        <v>0.1842936251532024</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4137736353621335</v>
+        <v>1.382510383769414</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.7075543427997246</v>
+        <v>0.6273394743995198</v>
       </c>
       <c r="H2">
-        <v>0.7868150775298091</v>
+        <v>0.4337945145408071</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4209050179155724</v>
+        <v>1.266353762180529</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.453394839498927</v>
+        <v>0.7233403857498928</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3954467967019184</v>
+        <v>1.019571517649581</v>
       </c>
       <c r="C3">
-        <v>0.05099699084149734</v>
+        <v>0.1607942533376274</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3609939484190932</v>
+        <v>1.18600249432393</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.7027908819782596</v>
+        <v>0.5856698701673508</v>
       </c>
       <c r="H3">
-        <v>0.7896932428442511</v>
+        <v>0.4229878192289505</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3726306790273952</v>
+        <v>1.094627992646792</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.472137748567512</v>
+        <v>0.7721049619854305</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3685600794853201</v>
+        <v>0.9226336912848581</v>
       </c>
       <c r="C4">
-        <v>0.0467226698596761</v>
+        <v>0.1464880837306737</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3286826421104649</v>
+        <v>1.067750182590416</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.700426502524607</v>
+        <v>0.5619719034302904</v>
       </c>
       <c r="H4">
-        <v>0.7918900219751634</v>
+        <v>0.4174049527673702</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3430776091788346</v>
+        <v>0.9901770216072237</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.484234654344057</v>
+        <v>0.8034701461916285</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3576404618126219</v>
+        <v>0.8833362477359117</v>
       </c>
       <c r="C5">
-        <v>0.04497629318019847</v>
+        <v>0.140682503122207</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3155376903613956</v>
+        <v>1.020073043503615</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.6996032161523118</v>
+        <v>0.5527505032200679</v>
       </c>
       <c r="H5">
-        <v>0.7928930327952912</v>
+        <v>0.4153771790886083</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3310563013387764</v>
+        <v>0.9478199404094312</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.48931203180177</v>
+        <v>0.8165959736629311</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3558294955680879</v>
+        <v>0.8768223204101275</v>
       </c>
       <c r="C6">
-        <v>0.04468603134755256</v>
+        <v>0.1397197783592645</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3133562653516577</v>
+        <v>1.012184631732509</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.6994749584436022</v>
+        <v>0.5512445306748504</v>
       </c>
       <c r="H6">
-        <v>0.7930660869438242</v>
+        <v>0.4150549210743435</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3290614834788244</v>
+        <v>0.9407979683691963</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.490164045686948</v>
+        <v>0.8187959181754039</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3684126642823742</v>
+        <v>0.9221029270057386</v>
       </c>
       <c r="C7">
-        <v>0.04669913615707344</v>
+        <v>0.1464096974681013</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3285052773981363</v>
+        <v>1.067105237247503</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7004148325934239</v>
+        <v>0.5618458254951122</v>
       </c>
       <c r="H7">
-        <v>0.7919031127192113</v>
+        <v>0.4173766262501033</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3429153975916961</v>
+        <v>0.9896049910980764</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.484302531561749</v>
+        <v>0.8036457891624238</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4242640038382888</v>
+        <v>1.123819011031316</v>
       </c>
       <c r="C8">
-        <v>0.05554272476283018</v>
+        <v>0.176161506815788</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3955542002076555</v>
+        <v>1.314196761291271</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.7057951630525139</v>
+        <v>0.6125557436628384</v>
       </c>
       <c r="H8">
-        <v>0.7877181799069461</v>
+        <v>0.4298390517164705</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4042417066088717</v>
+        <v>1.206911492729773</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.459735070734158</v>
+        <v>0.7398503997970813</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5349683107570797</v>
+        <v>1.528877086226828</v>
       </c>
       <c r="C9">
-        <v>0.0727477052484744</v>
+        <v>0.2358043651867092</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5278868984118787</v>
+        <v>1.82251638413922</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.7208258525342046</v>
+        <v>0.7288932809282329</v>
       </c>
       <c r="H9">
-        <v>0.7829303850148221</v>
+        <v>0.4634863318966751</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.525213243517868</v>
+        <v>1.642956136089737</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.416239278022974</v>
+        <v>0.626712690911134</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.617046180237196</v>
+        <v>1.835116773951484</v>
       </c>
       <c r="C10">
-        <v>0.08531148287526946</v>
+        <v>0.2809301118138876</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6257652364423052</v>
+        <v>2.217910094620933</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.7346485376339302</v>
+        <v>0.8276277187981265</v>
       </c>
       <c r="H10">
-        <v>0.7815123812529094</v>
+        <v>0.4951423136339628</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6145558361697567</v>
+        <v>1.972556725978052</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.38714919399969</v>
+        <v>0.5519069517803104</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6545527502293851</v>
+        <v>1.977033404072415</v>
       </c>
       <c r="C11">
-        <v>0.09101199920894487</v>
+        <v>0.3018752575045767</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6704645055443876</v>
+        <v>2.404500930722861</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.74155110603715</v>
+        <v>0.8761753182856609</v>
       </c>
       <c r="H11">
-        <v>0.7813266356545654</v>
+        <v>0.5113845720208161</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6553084531769287</v>
+        <v>2.125320283936276</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.374540510164916</v>
+        <v>0.5199402066552778</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.668780093169886</v>
+        <v>2.031216533867678</v>
       </c>
       <c r="C12">
-        <v>0.09316861125182641</v>
+        <v>0.3098793763329297</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.687418236851002</v>
+        <v>2.476316351072626</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.744254134889843</v>
+        <v>0.8951529082168292</v>
       </c>
       <c r="H12">
-        <v>0.7813226188700781</v>
+        <v>0.517831851285294</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6707566689166242</v>
+        <v>2.183651321304723</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.369856014554738</v>
+        <v>0.5081566184103146</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6657148921909197</v>
+        <v>2.019526389066328</v>
       </c>
       <c r="C13">
-        <v>0.0927042361395678</v>
+        <v>0.3081520953492003</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6837657093580702</v>
+        <v>2.460794794532589</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.7436680102750159</v>
+        <v>0.8910381125581353</v>
       </c>
       <c r="H13">
-        <v>0.7813205299263899</v>
+        <v>0.5164295703176123</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6674289000962403</v>
+        <v>2.171065899193479</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.370860890195054</v>
+        <v>0.5106796970467222</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.655722752159221</v>
+        <v>1.981481800805057</v>
       </c>
       <c r="C14">
-        <v>0.0911894655978216</v>
+        <v>0.3025322266859405</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6718587443379391</v>
+        <v>2.410384837518293</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.7417716940042851</v>
+        <v>0.8777242787539734</v>
       </c>
       <c r="H14">
-        <v>0.7813249744437485</v>
+        <v>0.5119088512815324</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6565790634647612</v>
+        <v>2.130109066660282</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.374153305449806</v>
+        <v>0.5189641668422489</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6496054617903724</v>
+        <v>1.958238146299124</v>
       </c>
       <c r="C15">
-        <v>0.09026136035443244</v>
+        <v>0.2990997600068965</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6645689742595806</v>
+        <v>2.379664163113844</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.7406217828284696</v>
+        <v>0.8696487472839181</v>
       </c>
       <c r="H15">
-        <v>0.7813363419509329</v>
+        <v>0.5091794287538391</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6499353269543349</v>
+        <v>2.105087123990955</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.37618175358039</v>
+        <v>0.5240813046049482</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6145984477290654</v>
+        <v>1.825900234626602</v>
       </c>
       <c r="C16">
-        <v>0.08493864951248042</v>
+        <v>0.279570736561368</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6228477109398511</v>
+        <v>2.205866920835518</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.7342098735641827</v>
+        <v>0.8245340203735907</v>
       </c>
       <c r="H16">
-        <v>0.7815337859018001</v>
+        <v>0.4941205414470176</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6118947946233106</v>
+        <v>1.962636462338452</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.387985796675032</v>
+        <v>0.5540396254761788</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5931661345967143</v>
+        <v>1.745428442950356</v>
       </c>
       <c r="C17">
-        <v>0.08166960211713103</v>
+        <v>0.2677056620243263</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5972990837829002</v>
+        <v>2.101097312808946</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.7304343477027828</v>
+        <v>0.7978361361051469</v>
       </c>
       <c r="H17">
-        <v>0.7817727448399125</v>
+        <v>0.4853756163947622</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.588586555196855</v>
+        <v>1.876023017796513</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.395387388531564</v>
+        <v>0.5729632407082192</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5808547280054484</v>
+        <v>1.699384062197282</v>
       </c>
       <c r="C18">
-        <v>0.07978793375741589</v>
+        <v>0.2609196064481978</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5826204338558512</v>
+        <v>2.041456610883998</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.7283205619081912</v>
+        <v>0.7828174188851591</v>
       </c>
       <c r="H18">
-        <v>0.7819534037079876</v>
+        <v>0.4805170092668902</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5751906326500773</v>
+        <v>1.826466226857036</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.399703352992567</v>
+        <v>0.5840401104942465</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5766890231838033</v>
+        <v>1.683833664469887</v>
       </c>
       <c r="C19">
-        <v>0.07915059053752316</v>
+        <v>0.2586282046917319</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5776532222990625</v>
+        <v>2.021364414152487</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.7276147726633582</v>
+        <v>0.7777882182339653</v>
       </c>
       <c r="H19">
-        <v>0.7820219858516282</v>
+        <v>0.4789004699561161</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5706567758297751</v>
+        <v>1.809729793227831</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.401174747296668</v>
+        <v>0.5878228987312433</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5954459951543924</v>
+        <v>1.753969409870734</v>
       </c>
       <c r="C20">
-        <v>0.08201774198886369</v>
+        <v>0.2689646566167028</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6000170825434026</v>
+        <v>2.112184755111244</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.7308302713195332</v>
+        <v>0.8006427832613525</v>
       </c>
       <c r="H20">
-        <v>0.7817428325879376</v>
+        <v>0.4862885870190468</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.591066683154537</v>
+        <v>1.885215633626672</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.394593392136279</v>
+        <v>0.5709286945514052</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6586570221394084</v>
+        <v>1.992643833616398</v>
       </c>
       <c r="C21">
-        <v>0.09163444541169952</v>
+        <v>0.3041808374281771</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6753553567391464</v>
+        <v>2.425158389397595</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.7423262614154993</v>
+        <v>0.8816181511958092</v>
       </c>
       <c r="H21">
-        <v>0.7813218668553645</v>
+        <v>0.5132283709713477</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6597654850641845</v>
+        <v>2.142125322975915</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.37318379425761</v>
+        <v>0.5165218781323873</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7001114776239206</v>
+        <v>2.151247370582837</v>
       </c>
       <c r="C22">
-        <v>0.09790760746096794</v>
+        <v>0.327627242983624</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7247521475696317</v>
+        <v>2.636561551941952</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.7503597189814712</v>
+        <v>0.9380401998244565</v>
       </c>
       <c r="H22">
-        <v>0.7814334404389029</v>
+        <v>0.5325820925175577</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7047579882747073</v>
+        <v>2.312887268033904</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.359716943009204</v>
+        <v>0.4828517221595909</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6779733819630849</v>
+        <v>2.066333803978324</v>
       </c>
       <c r="C23">
-        <v>0.09456056579017513</v>
+        <v>0.3150694161208492</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.698372920334009</v>
+        <v>2.523033679836914</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.7460242494154272</v>
+        <v>0.9075805522246441</v>
       </c>
       <c r="H23">
-        <v>0.7813384174771301</v>
+        <v>0.5220812319038117</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6807359745258452</v>
+        <v>2.221459260843574</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.366856255469749</v>
+        <v>0.5006403649337727</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5944152380762944</v>
+        <v>1.750107358711745</v>
       </c>
       <c r="C24">
-        <v>0.08186035496960642</v>
+        <v>0.2683953560383827</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.598788245615097</v>
+        <v>2.107170290212807</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.730651097329968</v>
+        <v>0.799372874697724</v>
       </c>
       <c r="H24">
-        <v>0.7817562211157707</v>
+        <v>0.4858753090643688</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.589945403950594</v>
+        <v>1.881058914994327</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.394952168861344</v>
+        <v>0.5718478997619947</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5048910722452433</v>
+        <v>1.418004490238673</v>
       </c>
       <c r="C25">
-        <v>0.06810728334302496</v>
+        <v>0.2194807449154865</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4919824951388989</v>
+        <v>1.681745532904387</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.7162750521133034</v>
+        <v>0.6953248837889561</v>
       </c>
       <c r="H25">
-        <v>0.7838580241663635</v>
+        <v>0.4532698327959395</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4924079129950485</v>
+        <v>1.52362378538669</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.427503630224834</v>
+        <v>0.6559393140941445</v>
       </c>
       <c r="O25">
         <v>0</v>
